--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42ef8b5084084149/fau/Graduate_ComputerENG/21_Spring/Software Engineering/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{90B2101E-A536-4D23-9536-492F88A33064}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2780F465-B3C9-49C1-B6B2-D5F61CC474B0}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{90B2101E-A536-4D23-9536-492F88A33064}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E884868F-47C7-9446-AA32-7088645342BF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{303C423F-9FE4-41FC-8272-788E0C2A54B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="37">
   <si>
     <t>Getting Started with Raspberry Pi Pico – Raspberry Pi</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Water Sensor</t>
   </si>
   <si>
-    <t>Manufacture</t>
-  </si>
-  <si>
     <t>Price(EA)</t>
   </si>
   <si>
@@ -87,12 +84,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Raspberry Pi 4</t>
-  </si>
-  <si>
-    <t>Raspberry Pi 4 Model B (2 GB) - DEV-15446 - SparkFun Electronics</t>
-  </si>
-  <si>
     <t>Cortex 0, can program in python</t>
   </si>
   <si>
@@ -102,7 +93,40 @@
     <t>Official Display (cheaper options)</t>
   </si>
   <si>
-    <t>Buy a Raspberry Pi Touch Display – Raspberry Pi</t>
+    <t>sensor case</t>
+  </si>
+  <si>
+    <t>screen case</t>
+  </si>
+  <si>
+    <t>3d print</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 0W</t>
+  </si>
+  <si>
+    <t>pi zero power cable 2.5A</t>
+  </si>
+  <si>
+    <t>sd card 32gb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electrical components </t>
+  </si>
+  <si>
+    <t>fan 5v?</t>
+  </si>
+  <si>
+    <t>Manufacture (research)(3d printing pen)</t>
+  </si>
+  <si>
+    <t>debug leds</t>
+  </si>
+  <si>
+    <t>aa holder</t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -469,63 +493,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30392DB6-4B58-4BB7-A434-6A5A2CFCEEFA}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="140.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.14453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="140.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -536,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -547,10 +567,10 @@
         <v>1.91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -558,10 +578,10 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -569,10 +589,10 @@
         <v>1.67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -580,10 +600,10 @@
         <v>0.15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -591,7 +611,85 @@
         <v>0.1</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -600,11 +698,9 @@
     <hyperlink ref="C6" r:id="rId2" display="https://www.amazon.com/gp/product/B07GZ17ZWS/ref=ppx_yo_dt_b_asin_title_o07_s00?ie=UTF8&amp;psc=1" xr:uid="{6BE58A39-719A-4892-81BB-5C15550AD38C}"/>
     <hyperlink ref="C7" r:id="rId3" display="https://www.amazon.com/gp/product/B07SYBSHGX/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;psc=1" xr:uid="{6D9BD508-FF84-41AB-AD80-833F6C5F7AC7}"/>
     <hyperlink ref="C8" r:id="rId4" display="https://www.amazon.com/gp/product/B01N7V536K/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1" xr:uid="{FCD265D7-53A5-4AA0-A37B-9A3EB3EA9037}"/>
-    <hyperlink ref="C2" r:id="rId5" display="https://www.sparkfun.com/products/15446?src=raspberrypi" xr:uid="{B3921428-AFB4-4B17-9935-0A3F98AAA68A}"/>
-    <hyperlink ref="C3" r:id="rId6" display="https://www.raspberrypi.org/products/raspberry-pi-touch-display/" xr:uid="{8A57A3C7-948D-481B-B13F-35D48B14752B}"/>
-    <hyperlink ref="C5" r:id="rId7" display="https://www.amazon.com/gp/product/B07T7ZR7MS/ref=ppx_yo_dt_b_asin_title_o09_s00?ie=UTF8&amp;psc=1" xr:uid="{146CE7CC-A3FA-4882-9F4B-FED597729688}"/>
+    <hyperlink ref="C5" r:id="rId5" display="https://www.amazon.com/gp/product/B07T7ZR7MS/ref=ppx_yo_dt_b_asin_title_o09_s00?ie=UTF8&amp;psc=1" xr:uid="{146CE7CC-A3FA-4882-9F4B-FED597729688}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>